--- a/data/trans_bre/P1002-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>48,02%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,96; 16,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,14</t>
+          <t>-1,36; 3,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,79; 253,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 362,28</t>
+          <t>-47,48; 386,14</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>56,73%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 7,01</t>
+          <t>0,51; 7,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 128,43</t>
+          <t>2,89; 135,83</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>16,01%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,89</t>
+          <t>-2,34; 3,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 106,39</t>
+          <t>-30,18; 110,22</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>14,41</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>171,95%</t>
+          <t>231,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>52,2%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 16,98</t>
+          <t>9,36; 19,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 9,18</t>
+          <t>-2,26; 7,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>103,61; 284,18</t>
+          <t>110,22; 418,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 230,85</t>
+          <t>-26,43; 170,45</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>184,47%</t>
+          <t>189,76%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 9,2</t>
+          <t>2,75; 9,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,78; 502,26</t>
+          <t>49,39; 514,39</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>34,97%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,87</t>
+          <t>-1,1; 4,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 146,63</t>
+          <t>-15,86; 152,11</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>43,3%</t>
+          <t>26,17%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 7,39</t>
+          <t>-4,16; 6,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 109,6</t>
+          <t>-43,01; 92,93</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,22</t>
+          <t>11,37</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>188,66%</t>
+          <t>265,68%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,46; 13,35</t>
+          <t>8,4; 15,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>106,85; 312,99</t>
+          <t>134,68; 731,83</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>82,92%</t>
+          <t>83,69%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,2</t>
+          <t>2,69; 6,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>53,07; 116,83</t>
+          <t>45,41; 133,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1002-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 5,19</t>
+          <t>-4,41; 5,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 16,86</t>
+          <t>5,38; 16,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 16,77</t>
+          <t>3,83; 16,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,19</t>
+          <t>-1,3; 3,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 103,99</t>
+          <t>-48,1; 108,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,79; 253,38</t>
+          <t>37,07; 244,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,24; 238,91</t>
+          <t>26,37; 233,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-47,48; 386,14</t>
+          <t>-48,11; 391,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 11,05</t>
+          <t>3,55; 11,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 11,37</t>
+          <t>2,81; 10,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 8,3</t>
+          <t>2,75; 8,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 7,05</t>
+          <t>0,17; 7,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,99; 198,68</t>
+          <t>36,5; 206,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,18; 200,72</t>
+          <t>26,49; 184,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,76; 501,14</t>
+          <t>60,94; 473,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 135,83</t>
+          <t>1,68; 132,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 4,64</t>
+          <t>0,07; 4,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 10,2</t>
+          <t>1,56; 9,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 6,28</t>
+          <t>0,09; 5,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,89</t>
+          <t>-2,26; 3,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 1261,68</t>
+          <t>-34,26; 1316,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,13; 286,66</t>
+          <t>17,63; 265,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 592,44</t>
+          <t>-8,94; 490,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,18; 110,22</t>
+          <t>-33,09; 86,31</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 8,49</t>
+          <t>2,24; 8,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,36; 19,06</t>
+          <t>9,91; 19,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 14,76</t>
+          <t>4,7; 14,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 7,36</t>
+          <t>-2,24; 7,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>58,21; 1284,06</t>
+          <t>58,13; 998,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>110,22; 418,56</t>
+          <t>114,27; 422,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,54; 222,48</t>
+          <t>41,51; 221,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 170,45</t>
+          <t>-26,14; 171,58</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 4,44</t>
+          <t>-4,85; 4,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 19,29</t>
+          <t>7,73; 19,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 8,06</t>
+          <t>-0,73; 8,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,75; 9,33</t>
+          <t>2,78; 9,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 124,48</t>
+          <t>-59,35; 116,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>104,59; 757,74</t>
+          <t>105,39; 848,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 357,85</t>
+          <t>-19,48; 354,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,39; 514,39</t>
+          <t>43,46; 528,61</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,11; 5,75</t>
+          <t>-0,08; 5,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 7,95</t>
+          <t>-1,83; 7,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 9,79</t>
+          <t>-1,1; 9,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,94</t>
+          <t>-1,38; 4,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 1241,58</t>
+          <t>-35,26; 893,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 160,08</t>
+          <t>-23,07; 155,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 176,66</t>
+          <t>-12,51; 158,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 152,11</t>
+          <t>-21,23; 130,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,36; 7,13</t>
+          <t>1,31; 7,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,13</t>
+          <t>0,74; 5,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 9,18</t>
+          <t>2,6; 9,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 6,66</t>
+          <t>-5,11; 6,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,72; 181,39</t>
+          <t>18,66; 190,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,51; 192,98</t>
+          <t>11,43; 193,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,48; 200,2</t>
+          <t>27,77; 204,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 92,93</t>
+          <t>-44,99; 84,95</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,46</t>
+          <t>-1,44; 4,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,46; 10,06</t>
+          <t>3,04; 9,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,43; 5,04</t>
+          <t>0,64; 5,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,4; 15,46</t>
+          <t>8,24; 15,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 73,19</t>
+          <t>-17,05; 71,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,4; 144,22</t>
+          <t>30,35; 143,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,0; 162,78</t>
+          <t>12,76; 161,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>134,68; 731,83</t>
+          <t>133,63; 719,83</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,53</t>
+          <t>1,97; 4,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,72; 8,64</t>
+          <t>5,69; 8,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,66</t>
+          <t>3,97; 6,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,1</t>
+          <t>2,69; 6,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34,81; 97,13</t>
+          <t>33,16; 97,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>76,37; 141,25</t>
+          <t>74,5; 140,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>69,32; 141,85</t>
+          <t>67,92; 137,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>45,41; 133,8</t>
+          <t>46,94; 135,45</t>
         </is>
       </c>
     </row>
